--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1209DE50-4984-DC49-B081-CC828358C105}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{919C025B-A429-0E48-B228-62F93C756381}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>Nom.</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Allard Marie</t>
-  </si>
-  <si>
-    <t>? / 1921</t>
   </si>
   <si>
     <t>191/1919</t>
@@ -395,12 +392,18 @@
       <t xml:space="preserve"> Edouard</t>
     </r>
   </si>
+  <si>
+    <t>2011/ 1921</t>
+  </si>
+  <si>
+    <t>Cessation d'usufruit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +430,12 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -586,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -618,6 +627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +988,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1091,7 @@
       <c r="T2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1093,6 +1105,9 @@
       <c r="H3" s="2"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="13">
+        <v>506</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="2"/>
@@ -1133,15 +1148,15 @@
         <v>11740</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4" t="s">
-        <v>76</v>
+      <c r="M4" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="T4" s="2"/>
@@ -1198,18 +1213,18 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S6" s="1">
         <v>872</v>
@@ -1235,7 +1250,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -1246,14 +1261,14 @@
       <c r="L7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="2"/>
@@ -1311,14 +1326,14 @@
       <c r="L9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="2"/>
@@ -1338,7 +1353,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
@@ -1346,19 +1361,22 @@
       </c>
       <c r="H10" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S10" s="1">
         <v>37</v>
@@ -1398,14 +1416,14 @@
       <c r="L11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2"/>
@@ -1483,15 +1501,15 @@
       <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="20" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="13">
         <v>378</v>
@@ -1505,14 +1523,14 @@
       <c r="L15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
@@ -1533,7 +1551,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>75</v>
@@ -1547,14 +1565,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S16" s="1">
         <v>54</v>
@@ -1595,7 +1613,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
@@ -1616,14 +1634,14 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S18" s="1">
         <v>292</v>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{919C025B-A429-0E48-B228-62F93C756381}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E27176A-28A1-C945-B96B-D674399C351F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView minimized="1" xWindow="18100" yWindow="760" windowWidth="12140" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>28 Janvier 1919</t>
   </si>
   <si>
-    <t>Paulus François?</t>
-  </si>
-  <si>
     <t>Mélanie</t>
   </si>
   <si>
@@ -298,52 +295,28 @@
     <t>191/1919</t>
   </si>
   <si>
-    <t>16 9b 1919</t>
-  </si>
-  <si>
     <t>14 mars 1928</t>
   </si>
   <si>
     <t>"</t>
   </si>
   <si>
-    <t>16 "</t>
-  </si>
-  <si>
     <t>4 janvier 1928</t>
   </si>
   <si>
-    <t>17 9b 1919</t>
-  </si>
-  <si>
     <t>24 avril 1919</t>
   </si>
   <si>
-    <t>17 9bre 1919</t>
-  </si>
-  <si>
     <t>7 avril 1920</t>
   </si>
   <si>
-    <t>19 9bre 1919</t>
-  </si>
-  <si>
     <t>15 avril 1919</t>
   </si>
   <si>
-    <t>19 "</t>
-  </si>
-  <si>
     <t>14 juin 1920</t>
   </si>
   <si>
-    <t>20 "</t>
-  </si>
-  <si>
     <t>16 mars 1920</t>
-  </si>
-  <si>
-    <t>10 9b 1920</t>
   </si>
   <si>
     <t>non passible</t>
@@ -397,6 +370,33 @@
   </si>
   <si>
     <t>Cessation d'usufruit</t>
+  </si>
+  <si>
+    <t>Paulus François</t>
+  </si>
+  <si>
+    <t>20 d</t>
+  </si>
+  <si>
+    <t>19 d</t>
+  </si>
+  <si>
+    <t>19 Dbre 1919</t>
+  </si>
+  <si>
+    <t>17 Dbre 1919</t>
+  </si>
+  <si>
+    <t>17 Db 1919</t>
+  </si>
+  <si>
+    <t>16 d</t>
+  </si>
+  <si>
+    <t>16 Db 1919</t>
+  </si>
+  <si>
+    <t>10 Db 1920</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -612,6 +612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,9 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,54 +985,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="15"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1043,8 +1041,8 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1053,8 @@
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1079,7 @@
       <c r="P2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1089,7 @@
       <c r="T2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1139,24 +1137,24 @@
         <v>35</v>
       </c>
       <c r="I4">
-        <v>16979</v>
+        <v>16975</v>
       </c>
       <c r="J4">
-        <v>5239</v>
+        <v>5235</v>
       </c>
       <c r="K4" s="1">
         <v>11740</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="T4" s="2"/>
@@ -1193,7 +1191,7 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1203,7 +1201,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="I6">
         <v>1971</v>
@@ -1213,18 +1211,18 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="S6" s="1">
         <v>872</v>
@@ -1240,17 +1238,17 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -1261,14 +1259,14 @@
       <c r="L7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="2"/>
@@ -1278,7 +1276,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
@@ -1299,23 +1297,23 @@
         <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="I9">
         <v>1885</v>
@@ -1326,14 +1324,14 @@
       <c r="L9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="2"/>
@@ -1344,39 +1342,39 @@
         <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>104</v>
+      <c r="I10" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S10" s="1">
         <v>37</v>
@@ -1392,20 +1390,20 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <v>800</v>
@@ -1416,14 +1414,14 @@
       <c r="L11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2"/>
@@ -1433,7 +1431,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1451,7 +1449,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="13"/>
       <c r="F13" s="1" t="s">
@@ -1472,7 +1470,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -1493,23 +1491,23 @@
         <v>408</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>74</v>
+      <c r="E15" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I15" s="13">
         <v>378</v>
@@ -1523,14 +1521,14 @@
       <c r="L15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
@@ -1544,17 +1542,17 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16">
         <v>7310</v>
@@ -1565,14 +1563,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="S16" s="1">
         <v>54</v>
@@ -1584,7 +1582,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
@@ -1604,23 +1602,23 @@
         <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="I18">
         <v>12437</v>
@@ -1634,17 +1632,17 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="S18" s="1">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E27176A-28A1-C945-B96B-D674399C351F}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A023E964-AC72-8640-918F-BA9BB0F8BAFC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18100" yWindow="760" windowWidth="12140" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="18100" yWindow="760" windowWidth="12140" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -346,13 +346,46 @@
     <t>Ronsmans Armande</t>
   </si>
   <si>
+    <t>2011/ 1921</t>
+  </si>
+  <si>
+    <t>Cessation d'usufruit</t>
+  </si>
+  <si>
+    <t>Paulus François</t>
+  </si>
+  <si>
+    <t>20 d</t>
+  </si>
+  <si>
+    <t>19 d</t>
+  </si>
+  <si>
+    <t>19 Dbre 1919</t>
+  </si>
+  <si>
+    <t>17 Dbre 1919</t>
+  </si>
+  <si>
+    <t>17 Db 1919</t>
+  </si>
+  <si>
+    <t>16 d</t>
+  </si>
+  <si>
+    <t>16 Db 1919</t>
+  </si>
+  <si>
+    <t>10 Db 1920</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>Vusseke</t>
+      <t>Voussure</t>
     </r>
     <r>
       <rPr>
@@ -364,39 +397,6 @@
       </rPr>
       <t xml:space="preserve"> Edouard</t>
     </r>
-  </si>
-  <si>
-    <t>2011/ 1921</t>
-  </si>
-  <si>
-    <t>Cessation d'usufruit</t>
-  </si>
-  <si>
-    <t>Paulus François</t>
-  </si>
-  <si>
-    <t>20 d</t>
-  </si>
-  <si>
-    <t>19 d</t>
-  </si>
-  <si>
-    <t>19 Dbre 1919</t>
-  </si>
-  <si>
-    <t>17 Dbre 1919</t>
-  </si>
-  <si>
-    <t>17 Db 1919</t>
-  </si>
-  <si>
-    <t>16 d</t>
-  </si>
-  <si>
-    <t>16 Db 1919</t>
-  </si>
-  <si>
-    <t>10 Db 1920</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,11 +1147,11 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>76</v>
@@ -1201,7 +1201,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>1971</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S6" s="1">
         <v>872</v>
@@ -1248,7 +1248,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -1259,7 +1259,7 @@
       <c r="L7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>78</v>
@@ -1324,7 +1324,7 @@
       <c r="L9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>79</v>
@@ -1361,7 +1361,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
@@ -1414,7 +1414,7 @@
       <c r="L11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>80</v>
@@ -1521,7 +1521,7 @@
       <c r="L15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>81</v>
@@ -1563,7 +1563,7 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>82</v>
@@ -1632,7 +1632,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>83</v>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A023E964-AC72-8640-918F-BA9BB0F8BAFC}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA828387-E702-CD46-924A-0E36721C8C4D}"/>
   <bookViews>
-    <workbookView xWindow="18100" yWindow="760" windowWidth="12140" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>Nom.</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Braine l'Alleud</t>
   </si>
   <si>
-    <t>servais</t>
-  </si>
-  <si>
     <t>Nivelles</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>4 avril 1918</t>
   </si>
   <si>
-    <t>Arreté le quatres novembre 1919</t>
-  </si>
-  <si>
     <t>cinq 9bre</t>
   </si>
   <si>
@@ -241,12 +235,6 @@
     <t>7 8b 1919</t>
   </si>
   <si>
-    <t>Arreté le cinq novembre 1919</t>
-  </si>
-  <si>
-    <t>Arreté le six novembre 1919</t>
-  </si>
-  <si>
     <t>Godeau Halenk &amp; autres</t>
   </si>
   <si>
@@ -260,9 +248,6 @@
   </si>
   <si>
     <t>Allard</t>
-  </si>
-  <si>
-    <t>Arreté le sept novembre 1919</t>
   </si>
   <si>
     <t>huit 9bre</t>
@@ -397,6 +382,21 @@
       </rPr>
       <t xml:space="preserve"> Edouard</t>
     </r>
+  </si>
+  <si>
+    <t>Arreté le quatres novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le cinq novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le six novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arreté le sept novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,9 @@
       <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="10" t="s">
@@ -1118,23 +1120,23 @@
         <v>403</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I4">
         <v>16975</v>
@@ -1147,14 +1149,14 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="T4" s="2"/>
@@ -1182,26 +1184,26 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>1971</v>
@@ -1211,18 +1213,18 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S6" s="1">
         <v>872</v>
@@ -1235,20 +1237,20 @@
         <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -1259,14 +1261,14 @@
       <c r="L7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="2"/>
@@ -1275,11 +1277,8 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1297,23 +1296,23 @@
         <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9">
         <v>1885</v>
@@ -1324,14 +1323,14 @@
       <c r="L9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="2"/>
@@ -1342,39 +1341,39 @@
         <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S10" s="1">
         <v>37</v>
@@ -1387,23 +1386,23 @@
         <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I11">
         <v>800</v>
@@ -1414,14 +1413,14 @@
       <c r="L11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2"/>
@@ -1430,10 +1429,9 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="K12" s="1"/>
@@ -1448,12 +1446,9 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" s="13"/>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1469,11 +1464,8 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1491,23 +1483,23 @@
         <v>408</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I15" s="13">
         <v>378</v>
@@ -1521,14 +1513,14 @@
       <c r="L15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
@@ -1539,20 +1531,20 @@
         <v>409</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I16">
         <v>7310</v>
@@ -1563,14 +1555,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S16" s="1">
         <v>54</v>
@@ -1581,11 +1573,8 @@
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2"/>
       <c r="K17" s="1"/>
@@ -1602,23 +1591,23 @@
         <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18">
         <v>12437</v>
@@ -1632,14 +1621,14 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S18" s="1">
         <v>252</v>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA828387-E702-CD46-924A-0E36721C8C4D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72A27DD9-D290-7445-8393-0A2E1B41B03C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>Date du dépot des déclarations</t>
   </si>
   <si>
-    <t>Date du décès ous du judgement d'envoi en possession, en cas d'absence.</t>
-  </si>
-  <si>
     <t>Noms, Prénoms et demeures des parties déclarantes.</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>Godeau</t>
-  </si>
-  <si>
-    <t>née Painblane</t>
   </si>
   <si>
     <t>Clément</t>
@@ -397,6 +391,12 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
+  </si>
+  <si>
+    <t>née Painblanc</t>
   </si>
 </sst>
 </file>
@@ -985,15 +985,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="233" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>4</v>
@@ -1005,39 +1005,39 @@
       <c r="E1" s="19"/>
       <c r="F1" s="16"/>
       <c r="G1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="16"/>
       <c r="L1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="16"/>
       <c r="O1" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="S1" s="16"/>
       <c r="T1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1053,46 +1053,46 @@
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="O2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="18"/>
       <c r="R2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1120,23 +1120,23 @@
         <v>403</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I4">
         <v>16975</v>
@@ -1149,14 +1149,14 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="T4" s="2"/>
@@ -1184,26 +1184,26 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I6">
         <v>1971</v>
@@ -1213,18 +1213,18 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S6" s="1">
         <v>872</v>
@@ -1237,20 +1237,20 @@
         <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -1261,14 +1261,14 @@
       <c r="L7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="2"/>
@@ -1278,7 +1278,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1296,23 +1296,23 @@
         <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I9">
         <v>1885</v>
@@ -1323,14 +1323,14 @@
       <c r="L9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="2"/>
@@ -1341,39 +1341,39 @@
         <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S10" s="1">
         <v>37</v>
@@ -1386,23 +1386,23 @@
         <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11">
         <v>800</v>
@@ -1413,14 +1413,14 @@
       <c r="L11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2"/>
@@ -1430,7 +1430,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="B13" s="1"/>
       <c r="D13" s="13"/>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1465,7 +1465,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1483,23 +1483,23 @@
         <v>408</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I15" s="13">
         <v>378</v>
@@ -1513,14 +1513,14 @@
       <c r="L15" s="2"/>
       <c r="N15" s="1"/>
       <c r="O15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
@@ -1531,20 +1531,20 @@
         <v>409</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>7310</v>
@@ -1555,14 +1555,14 @@
       <c r="L16" s="2"/>
       <c r="N16" s="1"/>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S16" s="1">
         <v>54</v>
@@ -1574,7 +1574,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2"/>
       <c r="K17" s="1"/>
@@ -1591,23 +1591,23 @@
         <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I18">
         <v>12437</v>
@@ -1621,14 +1621,14 @@
       <c r="L18" s="2"/>
       <c r="N18" s="1"/>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S18" s="1">
         <v>252</v>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72A27DD9-D290-7445-8393-0A2E1B41B03C}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A68E86-5278-3D47-824C-3C8C2584BD9D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>tc={AB44E702-818A-6448-AE17-915B2079209F}</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +50,7 @@
     Actif-passif=restant</t>
       </text>
     </comment>
-    <comment ref="I15" authorId="1" shapeId="0" xr:uid="{AB44E702-818A-6448-AE17-915B2079209F}">
+    <comment ref="H15" authorId="1" shapeId="0" xr:uid="{AB44E702-818A-6448-AE17-915B2079209F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Nom.</t>
   </si>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>Arreté le sept novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
@@ -445,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -552,30 +549,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -595,14 +572,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,7 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,6 +602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,14 +944,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+  <threadedComment ref="J2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
     <text>Actif-passif=restant</text>
   </threadedComment>
-  <threadedComment ref="I15" dT="2024-06-05T16:14:25.45" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{AB44E702-818A-6448-AE17-915B2079209F}">
+  <threadedComment ref="H15" dT="2024-06-05T16:14:25.45" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{AB44E702-818A-6448-AE17-915B2079209F}">
     <text xml:space="preserve">Either 378 / 176 / 202 Or 328/ 126 / 202 (—&gt; But then all the 7’s I wrote are 2?)
 </text>
   </threadedComment>
-  <threadedComment ref="I15" dT="2024-06-05T16:17:01.55" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{E12271E4-8A9B-914E-A404-65BC59AD37A1}" parentId="{AB44E702-818A-6448-AE17-915B2079209F}">
+  <threadedComment ref="H15" dT="2024-06-05T16:17:01.55" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{E12271E4-8A9B-914E-A404-65BC59AD37A1}" parentId="{AB44E702-818A-6448-AE17-915B2079209F}">
     <text>I think it’s 378/176/202 and they wrote it wrong</text>
   </threadedComment>
 </ThreadedComments>
@@ -983,140 +959,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="233" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="8" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="T1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="B3" s="1">
         <v>1919</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="13">
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="11">
         <v>506</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>403</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1128,62 +1099,60 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="H4">
+        <v>16975</v>
+      </c>
       <c r="I4">
-        <v>16975</v>
-      </c>
-      <c r="J4">
         <v>5235</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J4" s="1">
         <v>11740</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="13" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5">
+      <c r="H5">
         <v>2950</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="1">
         <v>2950</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1198,42 +1167,41 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>1971</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J6" s="1">
         <v>1971</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="1">
+      <c r="R6" s="1">
         <v>872</v>
       </c>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1245,54 +1213,53 @@
       <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>500</v>
       </c>
-      <c r="K7" s="1">
+      <c r="J7" s="1">
         <v>500</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" t="s">
+      <c r="K7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="S8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1307,37 +1274,36 @@
       <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>1885</v>
       </c>
-      <c r="K9" s="1">
+      <c r="J9" s="1">
         <v>1885</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" t="s">
+      <c r="K9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1349,40 +1315,39 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s">
         <v>78</v>
       </c>
-      <c r="S10" s="1">
+      <c r="R10" s="1">
         <v>37</v>
       </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1394,92 +1359,94 @@
       <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <v>800</v>
       </c>
-      <c r="K11" s="1">
+      <c r="J11" s="1">
         <v>800</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11" t="s">
+      <c r="K11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s">
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="S12" s="1"/>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
-      <c r="D13" s="13"/>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="S13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="S14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>408</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1491,43 +1458,42 @@
       <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="13">
+      <c r="H15" s="11">
         <v>378</v>
       </c>
-      <c r="J15" s="13">
+      <c r="I15" s="11">
         <v>176</v>
       </c>
-      <c r="K15" s="1">
+      <c r="J15" s="1">
         <v>202</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" t="s">
+      <c r="K15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s">
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>409</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1536,58 +1502,58 @@
       <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <v>7310</v>
       </c>
-      <c r="K16" s="1">
+      <c r="J16" s="1">
         <v>7310</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" t="s">
+      <c r="K16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="1">
+      <c r="R16" s="1">
         <v>54</v>
       </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="S17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1599,78 +1565,76 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="H18">
+        <v>12437</v>
+      </c>
       <c r="I18">
-        <v>12437</v>
-      </c>
-      <c r="J18">
         <v>369</v>
       </c>
-      <c r="K18" s="1">
+      <c r="J18" s="1">
         <v>12068</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" t="s">
+      <c r="K18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s">
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="1">
+      <c r="R18" s="1">
         <v>252</v>
       </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="T19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A68E86-5278-3D47-824C-3C8C2584BD9D}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCFAEF9-BBFE-C14D-98B4-FFABC7B53533}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>Julinien</t>
   </si>
   <si>
-    <t>le mai 1919</t>
-  </si>
-  <si>
     <t>Debutte Edmond &amp; autres</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>née Painblanc</t>
+  </si>
+  <si>
+    <t>16 mai 1919</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -568,42 +568,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,672 +1007,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A19"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12">
+        <v>1919</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15">
+        <v>506</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>403</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="13">
+        <v>16975</v>
+      </c>
+      <c r="I4" s="13">
+        <v>5235</v>
+      </c>
+      <c r="J4" s="12">
+        <v>11740</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13">
+        <v>2950</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12">
+        <v>2950</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1971</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12">
+        <v>1971</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="12">
+        <v>872</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>404</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="13">
+        <v>500</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12">
+        <v>500</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>405</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1885</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12">
+        <v>1885</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>406</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="12">
+        <v>37</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>407</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="13">
+        <v>800</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12">
+        <v>800</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1">
-        <v>1919</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="11">
-        <v>506</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>403</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>16975</v>
-      </c>
-      <c r="I4">
-        <v>5235</v>
-      </c>
-      <c r="J4" s="1">
-        <v>11740</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5">
-        <v>2950</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2950</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>408</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="15">
+        <v>378</v>
+      </c>
+      <c r="I15" s="15">
+        <v>176</v>
+      </c>
+      <c r="J15" s="12">
+        <v>202</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>409</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="13">
+        <v>7310</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12">
+        <v>7310</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" s="12">
+        <v>54</v>
+      </c>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>410</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="13">
+        <v>12437</v>
+      </c>
+      <c r="I18" s="13">
+        <v>369</v>
+      </c>
+      <c r="J18" s="12">
+        <v>12068</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H6">
-        <v>1971</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1971</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="1">
-        <v>872</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>404</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
-      <c r="J7" s="1">
-        <v>500</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>405</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>1885</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1885</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="M9" s="1"/>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>406</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="1"/>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="1">
-        <v>37</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>407</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>800</v>
-      </c>
-      <c r="J11" s="1">
-        <v>800</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="M11" s="1"/>
-      <c r="N11" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="M14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>408</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="11">
-        <v>378</v>
-      </c>
-      <c r="I15" s="11">
-        <v>176</v>
-      </c>
-      <c r="J15" s="1">
-        <v>202</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="M15" s="1"/>
-      <c r="N15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>409</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16">
-        <v>7310</v>
-      </c>
-      <c r="J16" s="1">
-        <v>7310</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="M16" s="1"/>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="O18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="R16" s="1">
-        <v>54</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="M17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>410</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18">
-        <v>12437</v>
-      </c>
-      <c r="I18">
-        <v>369</v>
-      </c>
-      <c r="J18" s="1">
-        <v>12068</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="M18" s="1"/>
-      <c r="N18" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="R18" s="12">
         <v>252</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
@@ -1636,7 +1754,8 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCFAEF9-BBFE-C14D-98B4-FFABC7B53533}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF06A15F-C3E8-3D4E-A431-68DAEE591991}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>Nom.</t>
   </si>
@@ -229,9 +229,6 @@
     <t>7 8b 1919</t>
   </si>
   <si>
-    <t>Godeau Halenk &amp; autres</t>
-  </si>
-  <si>
     <t>sept 9bre</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Debutte</t>
   </si>
   <si>
-    <t>Julinien</t>
-  </si>
-  <si>
     <t>Debutte Edmond &amp; autres</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
   </si>
   <si>
     <t>non passible</t>
-  </si>
-  <si>
-    <t>16 fevrier 1920</t>
   </si>
   <si>
     <t>13 mars 1923</t>
@@ -375,9 +366,6 @@
     </r>
   </si>
   <si>
-    <t>Arreté le quatres novembre 1919 servais</t>
-  </si>
-  <si>
     <t>Arreté le cinq novembre 1919 servais</t>
   </si>
   <si>
@@ -394,6 +382,24 @@
   </si>
   <si>
     <t>16 mai 1919</t>
+  </si>
+  <si>
+    <t>Justinien</t>
+  </si>
+  <si>
+    <t>Prosper</t>
+  </si>
+  <si>
+    <t>Clabecq</t>
+  </si>
+  <si>
+    <t>Arreté le quatre novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>16 février 1920</t>
+  </si>
+  <si>
+    <t>Godeau Hortens &amp; autres</t>
   </si>
 </sst>
 </file>
@@ -583,26 +589,11 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,45 +604,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,109 +992,109 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:R18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="7"/>
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1132,7 +1112,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="12"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="15">
+      <c r="L3" s="23">
         <v>506</v>
       </c>
       <c r="M3" s="12"/>
@@ -1144,7 +1124,7 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
     </row>
-    <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>403</v>
       </c>
@@ -1176,15 +1156,15 @@
         <v>11740</v>
       </c>
       <c r="K4" s="14"/>
-      <c r="L4" s="15" t="s">
-        <v>85</v>
+      <c r="L4" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="13"/>
@@ -1218,7 +1198,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
@@ -1238,7 +1218,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H6" s="13">
         <v>1971</v>
@@ -1249,18 +1229,18 @@
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R6" s="12">
         <v>872</v>
@@ -1268,7 +1248,7 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>404</v>
       </c>
@@ -1281,12 +1261,14 @@
       <c r="D7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="F7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="13">
         <v>500</v>
@@ -1299,14 +1281,14 @@
       <c r="L7" s="13"/>
       <c r="M7" s="12"/>
       <c r="N7" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="14"/>
@@ -1315,11 +1297,11 @@
     <row r="8" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="13"/>
@@ -1336,7 +1318,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>405</v>
       </c>
@@ -1350,7 +1332,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>44</v>
@@ -1369,20 +1351,20 @@
       <c r="L9" s="13"/>
       <c r="M9" s="12"/>
       <c r="N9" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R9" s="12"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>406</v>
       </c>
@@ -1396,7 +1378,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>49</v>
@@ -1404,8 +1386,8 @@
       <c r="G10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>86</v>
+      <c r="H10" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="12"/>
@@ -1413,14 +1395,14 @@
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="13" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="R10" s="12">
         <v>37</v>
@@ -1428,7 +1410,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>407</v>
       </c>
@@ -1442,13 +1424,13 @@
         <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>54</v>
+      <c r="G11" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="H11" s="13">
         <v>800</v>
@@ -1461,27 +1443,27 @@
       <c r="L11" s="13"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="13"/>
@@ -1498,14 +1480,14 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
       <c r="H13" s="13"/>
@@ -1522,14 +1504,14 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
       <c r="H14" s="13"/>
@@ -1546,27 +1528,27 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>408</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H15" s="15">
         <v>378</v>
@@ -1581,20 +1563,20 @@
       <c r="L15" s="13"/>
       <c r="M15" s="12"/>
       <c r="N15" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R15" s="12"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>409</v>
       </c>
@@ -1602,17 +1584,19 @@
         <v>29</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="13">
         <v>7310</v>
@@ -1625,14 +1609,14 @@
       <c r="L16" s="13"/>
       <c r="M16" s="12"/>
       <c r="N16" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R16" s="12">
         <v>54</v>
@@ -1640,14 +1624,14 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="13"/>
@@ -1664,27 +1648,27 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>410</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="H18" s="13">
         <v>12437</v>
@@ -1699,14 +1683,14 @@
       <c r="L18" s="13"/>
       <c r="M18" s="12"/>
       <c r="N18" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R18" s="12">
         <v>252</v>
@@ -1715,34 +1699,29 @@
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
+  <mergeCells count="10">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF06A15F-C3E8-3D4E-A431-68DAEE591991}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8C1D90-E845-024A-9A6E-0DC4DBE6DE06}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>Nom.</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>Godeau Hortens &amp; autres</t>
+  </si>
+  <si>
+    <t>§</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -604,6 +607,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -619,19 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,55 +992,55 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="7"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1047,8 +1049,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1060,8 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1086,7 @@
       <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="21"/>
       <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1099,626 +1101,571 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>1919</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="23">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="17">
         <v>506</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="M3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="8">
         <v>403</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4">
         <v>16975</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4">
         <v>5235</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <v>11740</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="P4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5">
         <v>2950</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>2950</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6">
         <v>1971</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>1971</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13" t="s">
+      <c r="P6" s="8"/>
+      <c r="Q6" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="7">
         <v>872</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="8">
         <v>404</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7">
         <v>500</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>500</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13" t="s">
+      <c r="K7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="13" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="8">
         <v>405</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9">
         <v>1885</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>1885</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13" t="s">
+      <c r="K9" s="8"/>
+      <c r="M9" s="7"/>
+      <c r="N9" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="13" t="s">
+      <c r="P9" s="8"/>
+      <c r="Q9" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="8">
         <v>406</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13" t="s">
+      <c r="P10" s="8"/>
+      <c r="Q10" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="7">
         <v>37</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="8">
         <v>407</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11">
         <v>800</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>800</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13" t="s">
+      <c r="K11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="8"/>
+      <c r="Q11" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="8">
         <v>408</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="9">
         <v>378</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="9">
         <v>176</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>202</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13" t="s">
+      <c r="K15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="13" t="s">
+      <c r="P15" s="8"/>
+      <c r="Q15" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="8">
         <v>409</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16">
         <v>7310</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>7310</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13" t="s">
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" t="s">
         <v>86</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="13" t="s">
+      <c r="P16" s="8"/>
+      <c r="Q16" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="7">
         <v>54</v>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="17" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="7">
         <v>410</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18">
         <v>12437</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18">
         <v>369</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="7">
         <v>12068</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13" t="s">
+      <c r="K18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="13" t="s">
+      <c r="P18" s="8"/>
+      <c r="Q18" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="7">
         <v>252</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+    </row>
+    <row r="34" spans="23:23" x14ac:dyDescent="0.2">
+      <c r="W34" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -994,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="150" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8C1D90-E845-024A-9A6E-0DC4DBE6DE06}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{599DD264-B8F2-8146-B6C1-713C651506D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B930DFE-C05F-8244-A21B-6269E6D9F066}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -366,15 +366,6 @@
     </r>
   </si>
   <si>
-    <t>Arreté le cinq novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le six novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Arreté le sept novembre 1919 servais</t>
-  </si>
-  <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
   </si>
   <si>
@@ -393,9 +384,6 @@
     <t>Clabecq</t>
   </si>
   <si>
-    <t>Arreté le quatre novembre 1919 servais</t>
-  </si>
-  <si>
     <t>16 février 1920</t>
   </si>
   <si>
@@ -403,6 +391,18 @@
   </si>
   <si>
     <t>§</t>
+  </si>
+  <si>
+    <t>Arrêté le quatre novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le cinq novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le six novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le sept novembre 1919 servais</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="150" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1013,7 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>5</v>
@@ -1247,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>40</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="R10" s="7">
         <v>37</v>
@@ -1403,7 +1403,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H11">
         <v>800</v>
@@ -1431,7 +1431,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1449,7 +1449,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="7"/>
       <c r="C13" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1467,7 +1467,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="7"/>
       <c r="C14" s="11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1539,7 +1539,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>27</v>
@@ -1578,7 +1578,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E17" s="7"/>
       <c r="G17" s="8"/>
@@ -1602,13 +1602,13 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>60</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="34" spans="23:23" x14ac:dyDescent="0.2">
       <c r="W34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/transcriptions/transcription_ex2.xlsx
+++ b/data/transcriptions/transcription_ex2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F139E340-0C02-41F2-A2C2-4B54C79A7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438C1B40-D6AC-FF4A-8E97-BB9D13DBB56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Numéros de la consignation au sommier n'30</t>
-  </si>
-  <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
   </si>
   <si>
     <t>quatre 9bre</t>
@@ -359,12 +350,21 @@
   <si>
     <t>11740 2950</t>
   </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,34 +634,34 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,130 +971,130 @@
   </sheetPr>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="50.65" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="50.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="T1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1">
+    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11">
         <v>1919</v>
@@ -1115,74 +1115,74 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="1:23" ht="19.5" customHeight="1">
+    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>403</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I4" s="20">
         <v>5235</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P4" s="13"/>
       <c r="R4" s="14"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
     </row>
-    <row r="5" spans="1:23" ht="19.5" customHeight="1">
+    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="H5" s="20">
         <v>1971</v>
@@ -1193,18 +1193,18 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R5" s="11">
         <v>872</v>
@@ -1212,27 +1212,27 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1">
+    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>404</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="20">
         <v>500</v>
@@ -1245,24 +1245,24 @@
       <c r="L6" s="14"/>
       <c r="M6" s="17"/>
       <c r="N6" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5" customHeight="1">
+    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="15"/>
       <c r="C7" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="13"/>
@@ -1279,27 +1279,27 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="1:23" ht="19.5" customHeight="1">
+    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>405</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="20">
         <v>1885</v>
@@ -1312,43 +1312,43 @@
       <c r="L8" s="14"/>
       <c r="M8" s="17"/>
       <c r="N8" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1">
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>406</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="F9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="H9" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1356,14 +1356,14 @@
       <c r="L9" s="14"/>
       <c r="M9" s="17"/>
       <c r="N9" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R9" s="11">
         <v>37</v>
@@ -1371,27 +1371,27 @@
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="1:23" ht="19.5" customHeight="1">
+    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>407</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>74</v>
       </c>
       <c r="H10" s="20">
         <v>800</v>
@@ -1404,24 +1404,24 @@
       <c r="L10" s="14"/>
       <c r="M10" s="17"/>
       <c r="N10" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="1:23" ht="19.5" customHeight="1">
+    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="15"/>
       <c r="C11" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1438,11 +1438,11 @@
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="1:23" ht="19.5" customHeight="1">
+    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="15"/>
       <c r="C12" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1459,27 +1459,27 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="1:23" ht="19.5" customHeight="1">
+    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>408</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="F13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="27">
         <v>378</v>
@@ -1494,40 +1494,40 @@
       <c r="L13" s="14"/>
       <c r="M13" s="17"/>
       <c r="N13" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
     </row>
-    <row r="14" spans="1:23" ht="19.5" customHeight="1">
+    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>409</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="F14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="20">
         <v>7310</v>
@@ -1540,14 +1540,14 @@
       <c r="L14" s="14"/>
       <c r="M14" s="17"/>
       <c r="N14" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R14" s="11">
         <v>54</v>
@@ -1555,11 +1555,11 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:23" ht="19.5" customHeight="1">
+    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="15"/>
       <c r="C15" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E15" s="17"/>
       <c r="G15" s="13"/>
@@ -1575,27 +1575,27 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:23" ht="19.5" customHeight="1">
+    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>410</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="F16" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="20">
         <v>12437</v>
@@ -1610,14 +1610,14 @@
       <c r="L16" s="14"/>
       <c r="M16" s="17"/>
       <c r="N16" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R16" s="11">
         <v>252</v>
@@ -1627,16 +1627,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
